--- a/sample2.xlsx
+++ b/sample2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook BlueAutomata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CB017-CED7-4E1D-B2D8-769ABD6631AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80A46F2-94B6-49EE-8EA8-BAE47FF54B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,10 +441,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -458,10 +458,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -475,10 +475,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
